--- a/applications/Brazil/SP_projections.xlsx
+++ b/applications/Brazil/SP_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>692551</v>
+        <v>1046668</v>
       </c>
       <c r="B4">
         <v>449749</v>
       </c>
       <c r="C4">
-        <v>1829440</v>
+        <v>1343959</v>
       </c>
       <c r="D4">
-        <v>3.768365436467104</v>
+        <v>5.695214578033358</v>
       </c>
       <c r="E4">
         <v>2.44721218691803</v>
       </c>
       <c r="F4">
-        <v>9.954494861787314</v>
+        <v>7.312857639917914</v>
       </c>
       <c r="G4">
-        <v>4018000</v>
+        <v>4768300</v>
       </c>
       <c r="H4">
         <v>2521500</v>
       </c>
       <c r="I4">
-        <v>6461600</v>
+        <v>4583800</v>
       </c>
       <c r="J4">
-        <v>0.5855588898072048</v>
+        <v>0.5101310990962651</v>
       </c>
       <c r="K4">
         <v>0.4161318714147038</v>
       </c>
       <c r="L4">
-        <v>0.6265664875092153</v>
+        <v>0.502996260662702</v>
       </c>
       <c r="M4">
-        <v>248214</v>
+        <v>462480</v>
       </c>
       <c r="N4">
         <v>292248</v>
       </c>
       <c r="O4">
-        <v>481299</v>
+        <v>1142670</v>
       </c>
       <c r="P4">
-        <v>1.413420119596045</v>
+        <v>2.633528072190846</v>
       </c>
       <c r="Q4">
         <v>1.664165611575918</v>
       </c>
       <c r="R4">
-        <v>2.740690251724144</v>
+        <v>6.50677547623749</v>
       </c>
       <c r="S4">
-        <v>1621883</v>
+        <v>2887639</v>
       </c>
       <c r="T4">
         <v>1797802</v>
       </c>
       <c r="U4">
-        <v>3157953</v>
+        <v>5303302</v>
       </c>
       <c r="V4">
-        <v>0.6057231782378157</v>
+        <v>0.5516405950135213</v>
       </c>
       <c r="W4">
         <v>0.4397038154112177</v>
       </c>
       <c r="X4">
-        <v>0.670502864383467</v>
+        <v>0.5956559186994766</v>
       </c>
     </row>
   </sheetData>
